--- a/화면구성/to최원석부장님/18. 전체회의때._07월 18일/에너지 검사.xlsx
+++ b/화면구성/to최원석부장님/18. 전체회의때._07월 18일/에너지 검사.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESKTOP\Desktop\Github\platForm\화면구성\to최원석부장님\18. 전체회의때._07월 18일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE4A18D-1BFA-47B0-9A6D-0CA63056F1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59959338-323D-4CC3-AF02-C28EE68ED962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{362F33FF-855E-475A-B82C-87F3B77FBE66}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{362F33FF-855E-475A-B82C-87F3B77FBE66}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="검사_1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>인구</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +112,66 @@
   </si>
   <si>
     <t>GRDP당 최종에너지 소비량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022_시군구_에너지수급통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가정부문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력사용(1000toe)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toe_to_kWh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력사용(toe)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력사용(kWh)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000toe_to_toe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화성시 1인당 가정부문 전력소비량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인구(인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대략</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종에너지소비량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KTOE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인당 최종에너지소비량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ktoe/인)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(toe/인)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,11 +567,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E682ADDF-5EF1-4319-AEBD-A1E81FFA6C8B}">
+  <dimension ref="A2:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.9140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>11630</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>130</v>
+      </c>
+      <c r="C8">
+        <f>B8*B3</f>
+        <v>130000</v>
+      </c>
+      <c r="D8">
+        <f>C8*B2</f>
+        <v>1511900000</v>
+      </c>
+      <c r="F8">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <f>D8/F8</f>
+        <v>1511.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1817</v>
+      </c>
+      <c r="C18">
+        <f>B18*B3</f>
+        <v>1817000</v>
+      </c>
+      <c r="D18">
+        <f>C18*B2</f>
+        <v>21131710000</v>
+      </c>
+      <c r="F18">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <f>D18/F18</f>
+        <v>2113.1709999999998</v>
+      </c>
+      <c r="D20">
+        <f>D18/1000000</f>
+        <v>21131.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86584EA3-E468-40B3-85DB-3465DE7FFDAB}">
-  <dimension ref="A2:J20"/>
+  <dimension ref="A2:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -602,6 +812,27 @@
         <v>8</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>32145</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11">
+        <f>B11*1000/B8</f>
+        <v>2.3654410279988154</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>9</v>
@@ -624,8 +855,11 @@
         <v>17</v>
       </c>
       <c r="I16">
-        <f>B17/B16</f>
-        <v>4.0074043657651291E-3</v>
+        <f>B17*1000/B16</f>
+        <v>4.0074043657651286</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
@@ -712,6 +946,18 @@
       </c>
       <c r="C20" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E28">
+        <f>32145000/13000000</f>
+        <v>2.4726923076923075</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="E29">
+        <f>3650000/1000000</f>
+        <v>3.65</v>
       </c>
     </row>
   </sheetData>
